--- a/螺纹/eta/螺纹盘面成本_月度数据.xlsx
+++ b/螺纹/eta/螺纹盘面成本_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3426.8128</v>
+        <v>3601.3565</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3367.5042</v>
+        <v>3375.5607</v>
       </c>
       <c r="C3" t="n">
-        <v>3386.8319</v>
+        <v>3400.1658</v>
       </c>
     </row>
     <row r="4">
